--- a/data/cupcakes.xlsx
+++ b/data/cupcakes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilehatch/Dropbox/Teaching/MSB 325/quarto-live/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE570C4-CBAD-BA48-8394-0B0881D4A710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC09B67-F033-5946-A016-D465A6A04E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="35840" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15520" yWindow="1760" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="399">
   <si>
     <t>StartDate</t>
   </si>
@@ -1216,6 +1216,12 @@
   </si>
   <si>
     <t>churros in a long bag, relatively easy to eat compared to donuts (geometry fits in my mouth better).</t>
+  </si>
+  <si>
+    <t>What snacks do you prefer for on-demand availability outside your classroom? (check all that apply)</t>
+  </si>
+  <si>
+    <t>What is the most that you would be willing to pay (in dollars) for a fresh cupcake delivered before class? - 1</t>
   </si>
 </sst>
 </file>
@@ -1579,9 +1585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1718,11 +1724,11 @@
       <c r="Q2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>41</v>
+      <c r="R2" t="s">
+        <v>397</v>
+      </c>
+      <c r="S2" t="s">
+        <v>398</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>42</v>
@@ -8231,7 +8237,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C83 D1:D83 G1:G83 I1:I83 J1:J83 K1:K83 L1:L83 M1:M83 P1:P83 Q1:Q83 R1:R83 U1:U83 V1:V83 W1:W83 X1:X83 Y1:Y83 Z1:Z83" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C83 D1:D83 G1:G83 I1:I83 J1:J83 K1:K83 L1:L83 M1:M83 P1:P83 Q1:Q83 R1 U1:U83 V1:V83 W1:W83 X1:X83 Y1:Y83 Z1:Z83 R3:R83" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8240,7 +8246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8166EDF6-9244-E94F-8A62-76F4519AE5B7}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="A1:I82"/>
     </sheetView>
   </sheetViews>
